--- a/data/raw/council_minutes_data.xlsx
+++ b/data/raw/council_minutes_data.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\python_project\EU_leadership_docs\data\pdfs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\python_project\EU_leadership_docs\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBBBAD5-45A5-44E5-B309-5A9CEE4F0E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB1E1A3-9603-40C9-B541-A8512B89074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -167,14 +166,6 @@
 in Russia and Belarus."</t>
   </si>
   <si>
-    <t>"The European Council held an in-depth discussion on the situation in Ukraine and agreed a
-number of concrete measures to support Ukraine. The European Council strongly condemned
-the annexation of Crimea and Sevastopol to the Russian Federation. It decided on an
-extension of the visa ban and asset freeze and cancelled the next EU-Russia Summit.
-Ahead of the 4th EU-Africa Summit, the European Council exchanged views on EU-Africa
-relations, with a particular focus on peace and security. "</t>
-  </si>
-  <si>
     <t>1602/24</t>
   </si>
   <si>
@@ -639,9 +630,6 @@
     <t>DRAFT MINUTES
 COUNCIL OF THE EUROPEAN UNION
 (Foreign Affairs/Development)</t>
-  </si>
-  <si>
-    <t>exchange of views</t>
   </si>
   <si>
     <t>9187/22</t>
@@ -1372,32 +1360,6 @@
 YOUTH, CULTURE AND SPORT) held in Brussels on 12 December 2014</t>
   </si>
   <si>
-    <t>The financing of the emergency measures in response to the Russian food import ban
-"Following the Russian food import ban, a series of emergency measures has already
-been adopted in August and September 2014, and a further package targeted to the dairy
-sector in the Baltic States has been approved on 26 November 2014. As soon as the
-conditions respecting the objective criteria required for eligibility are met, the
-Commission may propose another package targeted to the dairy sector in Finland.
-In its Amending Letter (AL) 1/2015, the Commission announced its intention to
-finance, if needed, these measures through the reserve for crises.
-Since the presentation of the AL 1/2015, the following three new elements have
-emerged, which allow the financing of those emergency measures without using the
-crisis reserve:
-– according to the declarations of the Member States on the actual uptake of
-the measures adopted in August and September, the cost is reduced from the
-initially estimated EUR 344 million to some EUR 234 million;
-– the final surplus of the EAGF exercise 2014 is some EUR 230 million
-higher than anticipated in the AL 1/2015, which was still based on
-estimates;
-– the financial corrections to be collected in 2015 are expected to be higher
-than initially expected last October."
-Based on these three new elements, the emergency measures referred to above
-(including those related to the dairy sector in the Baltic States, and for Finland once the
-conditions are met) can be financed within the appropriations requested in the
-AL 1/2015 thanks to this additional assigned revenue without having recourse to the
-crisis reserve."</t>
-  </si>
-  <si>
     <t>17038/24</t>
   </si>
   <si>
@@ -1420,6 +1382,83 @@
 emphasised that the results of ongoing technical discussions between the Commission
 and the Russian authorities show that there is still room to further discuss Russian
 import requirements with a view to ensure the lifting of the ban by the said authorities.</t>
+  </si>
+  <si>
+    <t>"The European Council held an in-depth discussion on the situation in Ukraine and agreed a
+number of concrete measures to support Ukraine. The European Council strongly condemned
+the annexation of Crimea and Sevastopol to the Russian Federation. It decided on an
+extension of the visa ban and asset freeze and cancelled the next EU-Russia Summit."</t>
+  </si>
+  <si>
+    <t>sanctions, diplomacy - visa ban, asset freeze, EU-Russia Summit cancellation</t>
+  </si>
+  <si>
+    <t>diplomacy, EU unity</t>
+  </si>
+  <si>
+    <t>energy, security, EU unity</t>
+  </si>
+  <si>
+    <t>general discussion</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>The financing of the emergency measures in response to the Russian food import ban
+"Following the Russian food import ban, a series of emergency measures has already
+been adopted in August and September 2014, and a further package targeted to the dairy
+sector in the Baltic States has been approved on 26 November 2014. As soon as the
+conditions respecting the objective criteria required for eligibility are met, the
+Commission may propose another package targeted to the dairy sector in Finland.
+In its Amending Letter (AL) 1/2015, the Commission announced its intention to
+finance, if needed, these measures through the reserve for crises.
+Since the presentation of the AL 1/2015, the following three new elements have
+emerged, which allow the financing of those emergency measures without using the
+crisis reserve: (...). Based on these three new elements, the emergency measures referred to above
+(including those related to the dairy sector in the Baltic States, and for Finland once the
+conditions are met) can be financed within the appropriations requested in the
+AL 1/2015 thanks to this additional assigned revenue without having recourse to the
+crisis reserve."</t>
+  </si>
+  <si>
+    <t>security (import/export)</t>
+  </si>
+  <si>
+    <t>diplomacy, security</t>
+  </si>
+  <si>
+    <t>multilateralism, diplomacy, security</t>
+  </si>
+  <si>
+    <t>security, defence</t>
+  </si>
+  <si>
+    <t>general discussion, talk with Ukraine representative</t>
+  </si>
+  <si>
+    <t>security, EU unity</t>
+  </si>
+  <si>
+    <t>security, diplomacy</t>
+  </si>
+  <si>
+    <t>Security, human rights</t>
+  </si>
+  <si>
+    <t>restrictive measures regarding agriculture</t>
+  </si>
+  <si>
+    <t>human rights, EU unity, sanctions</t>
+  </si>
+  <si>
+    <t>energy, hungary</t>
+  </si>
+  <si>
+    <t>security, EU unity, EU action plan</t>
+  </si>
+  <si>
+    <t>human rights, Eu unity, labour market</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1507,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1751,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="78" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="78" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1761,15 +1802,16 @@
     <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="3"/>
-    <col min="5" max="5" width="27.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1777,289 +1819,316 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B2" s="1">
+        <v>41624</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41718</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>41899</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41887</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>41953</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41920</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>41971</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41953</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41962</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>41990</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41982</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="319" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41985</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>42319</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42142</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42254</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="348" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>42346</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42325</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>42678</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42515</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>41732</v>
-      </c>
-      <c r="B2" s="1">
-        <v>41718</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>45377</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45371</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44344</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>45068</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44888</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>45433</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45250</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45790</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45621</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>42319</v>
-      </c>
-      <c r="B8" s="1">
-        <v>42142</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>42852</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42689</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>42852</v>
-      </c>
-      <c r="B9" s="1">
-        <v>42689</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>45979</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45798</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>42678</v>
-      </c>
-      <c r="B11" s="1">
-        <v>42515</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>42124</v>
-      </c>
-      <c r="B12" s="1">
-        <v>41962</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>45323</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45313</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B14" s="1">
-        <v>44949</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>42923</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42912</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>43214</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43206</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B15" s="1">
-        <v>45314</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>45705</v>
-      </c>
-      <c r="B16" s="1">
-        <v>45684</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>45705</v>
+        <v>44124</v>
       </c>
       <c r="B17" s="1">
-        <v>45684</v>
+        <v>44116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>44239</v>
       </c>
@@ -2067,16 +2136,16 @@
         <v>44221</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>44263</v>
       </c>
@@ -2084,1254 +2153,1419 @@
         <v>44249</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44277</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44326</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44344</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44624</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="B25" s="1">
+        <v>44630</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44641</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44655</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B28" s="1">
+        <v>44662</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B29" s="1">
+        <v>44697</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B30" s="1">
+        <v>44701</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44705</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B32" s="1">
+        <v>44721</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B33" s="1">
+        <v>44732</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B34" s="1">
+        <v>44740</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44754</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="319" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44760</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44768</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44830</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44838</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44847</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44851</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44873</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44879</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44888</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44893</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="232" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44903</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44907</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44914</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F49" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44949</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44977</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>45006</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44977</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="F51" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44978</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="203" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45005</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="228.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45040</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="261" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45041</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45103</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45127</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45132</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45218</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45222</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45243</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45250</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45264</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45271</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45313</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45314</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45348</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45355</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45369</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45371</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="1">
+        <v>45373</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45376</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45404</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45467</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45495</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45614</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45617</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45621</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A82" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45642</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A83" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A85" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45712</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>45721</v>
-      </c>
-      <c r="B21" s="1">
-        <v>45712</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D85" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>44991</v>
-      </c>
-      <c r="B22" s="1">
-        <v>44978</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="1">
-        <v>44630</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="1">
-        <v>45373</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="40" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>44636</v>
-      </c>
-      <c r="B25" s="1">
-        <v>44624</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>44636</v>
-      </c>
-      <c r="B26" s="1">
-        <v>44624</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>45352</v>
-      </c>
-      <c r="B27" s="1">
-        <v>45348</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>45363</v>
-      </c>
-      <c r="B28" s="1">
-        <v>45355</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="F85" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A86" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45798</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+      <c r="A88" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45824</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>45016</v>
-      </c>
-      <c r="B29" s="1">
-        <v>44998</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>44305</v>
-      </c>
-      <c r="B30" s="1">
-        <v>44277</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>44651</v>
-      </c>
-      <c r="B31" s="1">
-        <v>44641</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>45019</v>
-      </c>
-      <c r="B32" s="1">
-        <v>45005</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>44680</v>
-      </c>
-      <c r="B33" s="1">
-        <v>44655</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>45772</v>
-      </c>
-      <c r="B34" s="1">
-        <v>45761</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>43214</v>
-      </c>
-      <c r="B35" s="1">
-        <v>43206</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>45394</v>
-      </c>
-      <c r="B36" s="1">
-        <v>45369</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>44679</v>
-      </c>
-      <c r="B37" s="1">
-        <v>44662</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>45398</v>
-      </c>
-      <c r="B38" s="1">
-        <v>45376</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>45061</v>
-      </c>
-      <c r="B39" s="1">
-        <v>45041</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>45051</v>
-      </c>
-      <c r="B40" s="1">
-        <v>45040</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>44354</v>
-      </c>
-      <c r="B41" s="1">
-        <v>44326</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>45063</v>
-      </c>
-      <c r="B42" s="1">
-        <v>45050</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>44713</v>
-      </c>
-      <c r="B43" s="1">
-        <v>44697</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B44" s="1">
-        <v>45404</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44714</v>
-      </c>
-      <c r="B45" s="1">
-        <v>44701</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="145" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>44714</v>
-      </c>
-      <c r="B46" s="1">
-        <v>44705</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>45079</v>
-      </c>
-      <c r="B47" s="1">
-        <v>45068</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>44734</v>
-      </c>
-      <c r="B48" s="1">
-        <v>44721</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>44760</v>
-      </c>
-      <c r="B49" s="1">
-        <v>44732</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>45840</v>
-      </c>
-      <c r="B50" s="1">
-        <v>45824</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="261" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>42923</v>
-      </c>
-      <c r="B51" s="1">
-        <v>42912</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="377" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>44756</v>
-      </c>
-      <c r="B52" s="1">
-        <v>44740</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>45107</v>
-      </c>
-      <c r="B53" s="1">
-        <v>45103</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>44762</v>
-      </c>
-      <c r="B54" s="1">
-        <v>44754</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>44795</v>
-      </c>
-      <c r="B55" s="1">
-        <v>44760</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="114.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
-        <v>44771</v>
-      </c>
-      <c r="B56" s="1">
-        <v>44760</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1">
-        <v>45476</v>
-      </c>
-      <c r="B57" s="1">
-        <v>45467</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1">
-        <v>44796</v>
-      </c>
-      <c r="B58" s="1">
-        <v>44768</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D58" s="3" t="s">
+      <c r="F88" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A89" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45853</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="D89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1">
-        <v>45861</v>
-      </c>
-      <c r="B59" s="1">
-        <v>45853</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1">
-        <v>44124</v>
-      </c>
-      <c r="B60" s="1">
-        <v>44116</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="1">
-        <v>42278</v>
-      </c>
-      <c r="B61" s="1">
-        <v>42254</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1">
-        <v>45170</v>
-      </c>
-      <c r="B62" s="1">
-        <v>45127</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1">
-        <v>45162</v>
-      </c>
-      <c r="B63" s="1">
-        <v>45132</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1">
-        <v>45538</v>
-      </c>
-      <c r="B64" s="1">
-        <v>45495</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="1">
-        <v>44837</v>
-      </c>
-      <c r="B65" s="1">
-        <v>44830</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="261" x14ac:dyDescent="0.35">
-      <c r="A66" s="1">
-        <v>41899</v>
-      </c>
-      <c r="B66" s="1">
-        <v>41887</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" s="3" t="s">
+      <c r="F89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A90" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45916</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A67" s="1">
-        <v>45929</v>
-      </c>
-      <c r="B67" s="1">
-        <v>45916</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="E90" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A68" s="1">
-        <v>44851</v>
-      </c>
-      <c r="B68" s="1">
-        <v>44838</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="1">
-        <v>44893</v>
-      </c>
-      <c r="B69" s="1">
-        <v>44847</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="1">
-        <v>44861</v>
-      </c>
-      <c r="B70" s="1">
-        <v>44851</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="1">
-        <v>41953</v>
-      </c>
-      <c r="B71" s="1">
-        <v>41920</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="1">
-        <v>42346</v>
-      </c>
-      <c r="B72" s="1">
-        <v>42325</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1">
-        <v>45230</v>
-      </c>
-      <c r="B73" s="1">
-        <v>45218</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="1">
-        <v>44908</v>
-      </c>
-      <c r="B74" s="1">
-        <v>44873</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="1">
-        <v>45237</v>
-      </c>
-      <c r="B75" s="1">
-        <v>45222</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="56.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="1">
-        <v>44935</v>
-      </c>
-      <c r="B76" s="1">
-        <v>44879</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="1">
-        <v>41971</v>
-      </c>
-      <c r="B77" s="1">
-        <v>41953</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="1">
-        <v>44929</v>
-      </c>
-      <c r="B78" s="1">
-        <v>44893</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="F90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45985</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A79" s="1">
-        <v>45252</v>
-      </c>
-      <c r="B79" s="1">
-        <v>45243</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="1">
-        <v>45994</v>
-      </c>
-      <c r="B80" s="1">
-        <v>45985</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="E91" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="1">
-        <v>44965</v>
-      </c>
-      <c r="B81" s="1">
-        <v>44903</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A82" s="1">
-        <v>45628</v>
-      </c>
-      <c r="B82" s="1">
-        <v>45614</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="1">
-        <v>45629</v>
-      </c>
-      <c r="B83" s="1">
-        <v>45617</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B84" s="1">
-        <v>44907</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="1">
-        <v>44943</v>
-      </c>
-      <c r="B85" s="1">
-        <v>44914</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="145" x14ac:dyDescent="0.35">
-      <c r="A86" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B86" s="1">
-        <v>45264</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="1">
-        <v>41990</v>
-      </c>
-      <c r="B87" s="1">
-        <v>41982</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="F91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B92" s="1">
+        <v>46006</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A88" s="1">
-        <v>45280</v>
-      </c>
-      <c r="B88" s="1">
-        <v>45271</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="D92" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="1">
-        <v>46008</v>
-      </c>
-      <c r="B89" s="1">
-        <v>46006</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="1">
-        <v>41991</v>
-      </c>
-      <c r="B90" s="1">
-        <v>41985</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A91" s="1">
-        <v>45688</v>
-      </c>
-      <c r="B91" s="1">
-        <v>45642</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="1">
-        <v>41987</v>
-      </c>
-      <c r="B92" s="1">
-        <v>41624</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>200</v>
+      <c r="F92" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F92">
+    <sortCondition ref="B76:B92"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
